--- a/Bills/Vidhya_Dhamankar_Jobuss.xlsx
+++ b/Bills/Vidhya_Dhamankar_Jobuss.xlsx
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G12" s="36" t="inlineStr">
         <is>
-          <t>27-02-2026</t>
+          <t>28-02-2026</t>
         </is>
       </c>
       <c r="H12" s="37" t="n"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="G13" s="78" t="inlineStr">
         <is>
-          <t>02-03-2026</t>
+          <t>03-03-2026</t>
         </is>
       </c>
       <c r="H13" s="79" t="n"/>

--- a/Bills/Vidhya_Dhamankar_Jobuss.xlsx
+++ b/Bills/Vidhya_Dhamankar_Jobuss.xlsx
@@ -2040,7 +2040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2072,7 +2072,6 @@
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2083,122 +2082,117 @@
       </c>
       <c r="B1" s="126" t="inlineStr">
         <is>
-          <t>Working At</t>
+          <t>Employee Code</t>
         </is>
       </c>
       <c r="C1" s="126" t="inlineStr">
         <is>
-          <t>Employee Code</t>
+          <t>Employee Name</t>
         </is>
       </c>
       <c r="D1" s="126" t="inlineStr">
         <is>
-          <t>Employee Name</t>
+          <t>Billing</t>
         </is>
       </c>
       <c r="E1" s="126" t="inlineStr">
         <is>
-          <t>Billing</t>
+          <t>No of days</t>
         </is>
       </c>
       <c r="F1" s="126" t="inlineStr">
         <is>
-          <t>No of days</t>
+          <t>Eligible Days</t>
         </is>
       </c>
       <c r="G1" s="126" t="inlineStr">
         <is>
-          <t>Eligible Days</t>
+          <t>No of Saturdays</t>
         </is>
       </c>
       <c r="H1" s="126" t="inlineStr">
         <is>
-          <t>No of Saturdays</t>
+          <t>No of Sundays</t>
         </is>
       </c>
       <c r="I1" s="126" t="inlineStr">
         <is>
-          <t>No of Sundays</t>
+          <t>No of Holidays</t>
         </is>
       </c>
       <c r="J1" s="126" t="inlineStr">
         <is>
-          <t>No of Holidays</t>
+          <t>Total Present</t>
         </is>
       </c>
       <c r="K1" s="126" t="inlineStr">
         <is>
-          <t>Total Present</t>
+          <t>Total Working Days</t>
         </is>
       </c>
       <c r="L1" s="126" t="inlineStr">
         <is>
-          <t>Total Working Days</t>
+          <t>Absents this Month</t>
         </is>
       </c>
       <c r="M1" s="126" t="inlineStr">
         <is>
-          <t>Absents this Month</t>
+          <t>Adjustment of Days</t>
         </is>
       </c>
       <c r="N1" s="126" t="inlineStr">
         <is>
-          <t>Adjustment of Days</t>
+          <t>Total Payable Days</t>
         </is>
       </c>
       <c r="O1" s="126" t="inlineStr">
         <is>
-          <t>Total Payable Days</t>
+          <t>Total Payable Billing</t>
         </is>
       </c>
       <c r="P1" s="126" t="inlineStr">
         <is>
-          <t>Total Payable Billing</t>
+          <t>Charges</t>
         </is>
       </c>
       <c r="Q1" s="126" t="inlineStr">
         <is>
-          <t>Charges</t>
+          <t>Out of Pocket Exp</t>
         </is>
       </c>
       <c r="R1" s="126" t="inlineStr">
         <is>
-          <t>Out of Pocket Exp</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="S1" s="126" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="T1" s="126" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Grand Total</t>
         </is>
       </c>
       <c r="U1" s="126" t="inlineStr">
         <is>
+          <t>Remark</t>
+        </is>
+      </c>
+      <c r="V1" s="126" t="inlineStr">
+        <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="V1" s="126" t="inlineStr">
+      <c r="W1" s="126" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="126" t="inlineStr">
+      <c r="X1" s="126" t="inlineStr">
         <is>
           <t>IGST @18%</t>
-        </is>
-      </c>
-      <c r="X1" s="126" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="Y1" s="126" t="inlineStr">
-        <is>
-          <t>Remark</t>
         </is>
       </c>
     </row>
@@ -2210,80 +2204,75 @@
       </c>
       <c r="B2" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10040</t>
         </is>
       </c>
       <c r="C2" s="127" t="inlineStr">
         <is>
-          <t>JB-10040</t>
-        </is>
-      </c>
-      <c r="D2" s="127" t="inlineStr">
-        <is>
           <t>MAYURI VILAS MANJALKAR</t>
         </is>
       </c>
+      <c r="D2" s="127" t="n">
+        <v>23385</v>
+      </c>
       <c r="E2" s="127" t="n">
-        <v>23385</v>
+        <v>28</v>
       </c>
       <c r="F2" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G2" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H2" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" s="127" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K2" s="127" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L2" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="M2" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="127" t="n">
-        <v>31</v>
+        <v>25890.54</v>
       </c>
       <c r="P2" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="127" t="n">
         <v>25890.54</v>
       </c>
-      <c r="Q2" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" s="127" t="n">
-        <v>25890.54</v>
+        <v>30550.83</v>
       </c>
       <c r="U2" s="127" t="n">
-        <v>2330.15</v>
+        <v/>
       </c>
       <c r="V2" s="127" t="n">
         <v>2330.15</v>
       </c>
       <c r="W2" s="127" t="n">
-        <v>0</v>
+        <v>2330.15</v>
       </c>
       <c r="X2" s="127" t="n">
-        <v>30550.83</v>
-      </c>
-      <c r="Y2" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2295,80 +2284,75 @@
       </c>
       <c r="B3" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10007</t>
         </is>
       </c>
       <c r="C3" s="127" t="inlineStr">
         <is>
-          <t>JB-10007</t>
-        </is>
-      </c>
-      <c r="D3" s="127" t="inlineStr">
-        <is>
           <t>SHRAVANI SAGAR NARKAR</t>
         </is>
       </c>
+      <c r="D3" s="127" t="n">
+        <v>23235</v>
+      </c>
       <c r="E3" s="127" t="n">
-        <v>23235</v>
+        <v>28</v>
       </c>
       <c r="F3" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G3" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H3" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="127" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K3" s="127" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L3" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="M3" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" s="127" t="n">
-        <v>31</v>
+        <v>25724.46</v>
       </c>
       <c r="P3" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="127" t="n">
         <v>25724.46</v>
       </c>
-      <c r="Q3" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" s="127" t="n">
-        <v>25724.46</v>
+        <v>30354.87</v>
       </c>
       <c r="U3" s="127" t="n">
-        <v>2315.2</v>
+        <v/>
       </c>
       <c r="V3" s="127" t="n">
         <v>2315.2</v>
       </c>
       <c r="W3" s="127" t="n">
-        <v>0</v>
+        <v>2315.2</v>
       </c>
       <c r="X3" s="127" t="n">
-        <v>30354.87</v>
-      </c>
-      <c r="Y3" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2380,80 +2364,75 @@
       </c>
       <c r="B4" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10049</t>
         </is>
       </c>
       <c r="C4" s="127" t="inlineStr">
         <is>
-          <t>JB-10049</t>
-        </is>
-      </c>
-      <c r="D4" s="127" t="inlineStr">
-        <is>
           <t>DIKSHA SACHIN JADHAV</t>
         </is>
       </c>
+      <c r="D4" s="127" t="n">
+        <v>22884</v>
+      </c>
       <c r="E4" s="127" t="n">
-        <v>22884</v>
+        <v>28</v>
       </c>
       <c r="F4" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G4" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="127" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="127" t="n">
+        <v>22</v>
+      </c>
+      <c r="K4" s="127" t="n">
         <v>28</v>
       </c>
-      <c r="H4" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="127" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" s="127" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="127" t="n">
-        <v>22</v>
-      </c>
       <c r="L4" s="127" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="M4" s="127" t="n">
         <v>3</v>
       </c>
       <c r="N4" s="127" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="O4" s="127" t="n">
-        <v>31</v>
+        <v>25335.86</v>
       </c>
       <c r="P4" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="127" t="n">
         <v>25335.86</v>
       </c>
-      <c r="Q4" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" s="127" t="n">
-        <v>25335.86</v>
+        <v>29896.31</v>
       </c>
       <c r="U4" s="127" t="n">
-        <v>2280.23</v>
+        <v/>
       </c>
       <c r="V4" s="127" t="n">
         <v>2280.23</v>
       </c>
       <c r="W4" s="127" t="n">
-        <v>0</v>
+        <v>2280.23</v>
       </c>
       <c r="X4" s="127" t="n">
-        <v>29896.31</v>
-      </c>
-      <c r="Y4" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2465,80 +2444,75 @@
       </c>
       <c r="B5" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10051</t>
         </is>
       </c>
       <c r="C5" s="127" t="inlineStr">
         <is>
-          <t>JB-10051</t>
-        </is>
-      </c>
-      <c r="D5" s="127" t="inlineStr">
-        <is>
           <t>PRATIKSHA DILIP POTE</t>
         </is>
       </c>
+      <c r="D5" s="127" t="n">
+        <v>22398</v>
+      </c>
       <c r="E5" s="127" t="n">
-        <v>22398</v>
+        <v>28</v>
       </c>
       <c r="F5" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G5" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H5" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="127" t="n">
+        <v>23</v>
+      </c>
+      <c r="K5" s="127" t="n">
+        <v>29</v>
+      </c>
+      <c r="L5" s="127" t="n">
         <v>2</v>
-      </c>
-      <c r="K5" s="127" t="n">
-        <v>23</v>
-      </c>
-      <c r="L5" s="127" t="n">
-        <v>29</v>
       </c>
       <c r="M5" s="127" t="n">
         <v>2</v>
       </c>
       <c r="N5" s="127" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="O5" s="127" t="n">
-        <v>31</v>
+        <v>24797.79</v>
       </c>
       <c r="P5" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="127" t="n">
         <v>24797.79</v>
       </c>
-      <c r="Q5" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" s="127" t="n">
-        <v>24797.79</v>
+        <v>29261.39</v>
       </c>
       <c r="U5" s="127" t="n">
-        <v>2231.8</v>
+        <v/>
       </c>
       <c r="V5" s="127" t="n">
         <v>2231.8</v>
       </c>
       <c r="W5" s="127" t="n">
-        <v>0</v>
+        <v>2231.8</v>
       </c>
       <c r="X5" s="127" t="n">
-        <v>29261.39</v>
-      </c>
-      <c r="Y5" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2550,80 +2524,75 @@
       </c>
       <c r="B6" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10069</t>
         </is>
       </c>
       <c r="C6" s="127" t="inlineStr">
         <is>
-          <t>JB-10069</t>
-        </is>
-      </c>
-      <c r="D6" s="127" t="inlineStr">
-        <is>
           <t>ANIKET ANANDA DHANAWADE</t>
         </is>
       </c>
+      <c r="D6" s="127" t="n">
+        <v>22051</v>
+      </c>
       <c r="E6" s="127" t="n">
-        <v>22051</v>
+        <v>28</v>
       </c>
       <c r="F6" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G6" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="127" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="127" t="n">
+        <v>22</v>
+      </c>
+      <c r="K6" s="127" t="n">
         <v>28</v>
       </c>
-      <c r="H6" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="127" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="127" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="127" t="n">
-        <v>22</v>
-      </c>
       <c r="L6" s="127" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="M6" s="127" t="n">
         <v>3</v>
       </c>
       <c r="N6" s="127" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="O6" s="127" t="n">
-        <v>31</v>
+        <v>24413.61</v>
       </c>
       <c r="P6" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="127" t="n">
         <v>24413.61</v>
       </c>
-      <c r="Q6" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" s="127" t="n">
-        <v>24413.61</v>
+        <v>28808.06</v>
       </c>
       <c r="U6" s="127" t="n">
-        <v>2197.22</v>
+        <v/>
       </c>
       <c r="V6" s="127" t="n">
         <v>2197.22</v>
       </c>
       <c r="W6" s="127" t="n">
-        <v>0</v>
+        <v>2197.22</v>
       </c>
       <c r="X6" s="127" t="n">
-        <v>28808.06</v>
-      </c>
-      <c r="Y6" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2635,80 +2604,75 @@
       </c>
       <c r="B7" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10070</t>
         </is>
       </c>
       <c r="C7" s="127" t="inlineStr">
         <is>
-          <t>JB-10070</t>
-        </is>
-      </c>
-      <c r="D7" s="127" t="inlineStr">
-        <is>
           <t>ROSHANI DEEPAK KANDAR</t>
         </is>
       </c>
+      <c r="D7" s="127" t="n">
+        <v>22051</v>
+      </c>
       <c r="E7" s="127" t="n">
-        <v>22051</v>
+        <v>28</v>
       </c>
       <c r="F7" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G7" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H7" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="127" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K7" s="127" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L7" s="127" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M7" s="127" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="127" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="O7" s="127" t="n">
-        <v>31</v>
+        <v>24413.61</v>
       </c>
       <c r="P7" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="127" t="n">
         <v>24413.61</v>
       </c>
-      <c r="Q7" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" s="127" t="n">
-        <v>24413.61</v>
+        <v>28808.06</v>
       </c>
       <c r="U7" s="127" t="n">
-        <v>2197.22</v>
+        <v/>
       </c>
       <c r="V7" s="127" t="n">
         <v>2197.22</v>
       </c>
       <c r="W7" s="127" t="n">
-        <v>0</v>
+        <v>2197.22</v>
       </c>
       <c r="X7" s="127" t="n">
-        <v>28808.06</v>
-      </c>
-      <c r="Y7" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2720,80 +2684,75 @@
       </c>
       <c r="B8" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10113</t>
         </is>
       </c>
       <c r="C8" s="127" t="inlineStr">
         <is>
-          <t>JB-10113</t>
-        </is>
-      </c>
-      <c r="D8" s="127" t="inlineStr">
-        <is>
           <t>SHRUTI JADHAV</t>
         </is>
       </c>
+      <c r="D8" s="127" t="n">
+        <v>20735</v>
+      </c>
       <c r="E8" s="127" t="n">
-        <v>20735</v>
+        <v>28</v>
       </c>
       <c r="F8" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G8" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H8" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="127" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K8" s="127" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L8" s="127" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M8" s="127" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="127" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="O8" s="127" t="n">
-        <v>31</v>
+        <v>22956.61</v>
       </c>
       <c r="P8" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="127" t="n">
         <v>22956.61</v>
       </c>
-      <c r="Q8" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" s="127" t="n">
-        <v>22956.61</v>
+        <v>27088.8</v>
       </c>
       <c r="U8" s="127" t="n">
-        <v>2066.09</v>
+        <v/>
       </c>
       <c r="V8" s="127" t="n">
         <v>2066.09</v>
       </c>
       <c r="W8" s="127" t="n">
-        <v>0</v>
+        <v>2066.09</v>
       </c>
       <c r="X8" s="127" t="n">
-        <v>27088.8</v>
-      </c>
-      <c r="Y8" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2805,80 +2764,75 @@
       </c>
       <c r="B9" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10117</t>
         </is>
       </c>
       <c r="C9" s="127" t="inlineStr">
         <is>
-          <t>JB-10117</t>
-        </is>
-      </c>
-      <c r="D9" s="127" t="inlineStr">
-        <is>
           <t>MAYURI ANANT PANHALKAR</t>
         </is>
       </c>
+      <c r="D9" s="127" t="n">
+        <v>20735</v>
+      </c>
       <c r="E9" s="127" t="n">
-        <v>20735</v>
+        <v>28</v>
       </c>
       <c r="F9" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G9" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H9" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="127" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K9" s="127" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L9" s="127" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M9" s="127" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="127" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="O9" s="127" t="n">
-        <v>31</v>
+        <v>22956.61</v>
       </c>
       <c r="P9" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="127" t="n">
         <v>22956.61</v>
       </c>
-      <c r="Q9" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" s="127" t="n">
-        <v>22956.61</v>
+        <v>27088.8</v>
       </c>
       <c r="U9" s="127" t="n">
-        <v>2066.09</v>
+        <v/>
       </c>
       <c r="V9" s="127" t="n">
         <v>2066.09</v>
       </c>
       <c r="W9" s="127" t="n">
-        <v>0</v>
+        <v>2066.09</v>
       </c>
       <c r="X9" s="127" t="n">
-        <v>27088.8</v>
-      </c>
-      <c r="Y9" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2890,80 +2844,75 @@
       </c>
       <c r="B10" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10137</t>
         </is>
       </c>
       <c r="C10" s="127" t="inlineStr">
         <is>
-          <t>JB-10137</t>
-        </is>
-      </c>
-      <c r="D10" s="127" t="inlineStr">
-        <is>
           <t>SAKSHI SURESH DAKVE</t>
         </is>
       </c>
+      <c r="D10" s="127" t="n">
+        <v>20735</v>
+      </c>
       <c r="E10" s="127" t="n">
-        <v>20735</v>
+        <v>28</v>
       </c>
       <c r="F10" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G10" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H10" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="127" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K10" s="127" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L10" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="M10" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" s="127" t="n">
-        <v>31</v>
+        <v>22956.61</v>
       </c>
       <c r="P10" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="127" t="n">
         <v>22956.61</v>
       </c>
-      <c r="Q10" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" s="127" t="n">
-        <v>22956.61</v>
+        <v>27088.8</v>
       </c>
       <c r="U10" s="127" t="n">
-        <v>2066.09</v>
+        <v/>
       </c>
       <c r="V10" s="127" t="n">
         <v>2066.09</v>
       </c>
       <c r="W10" s="127" t="n">
-        <v>0</v>
+        <v>2066.09</v>
       </c>
       <c r="X10" s="127" t="n">
-        <v>27088.8</v>
-      </c>
-      <c r="Y10" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2975,80 +2924,75 @@
       </c>
       <c r="B11" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10138</t>
         </is>
       </c>
       <c r="C11" s="127" t="inlineStr">
         <is>
-          <t>JB-10138</t>
-        </is>
-      </c>
-      <c r="D11" s="127" t="inlineStr">
-        <is>
           <t>ANKITA SHRIPATI NALAWADE</t>
         </is>
       </c>
+      <c r="D11" s="127" t="n">
+        <v>20735</v>
+      </c>
       <c r="E11" s="127" t="n">
-        <v>20735</v>
+        <v>28</v>
       </c>
       <c r="F11" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G11" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H11" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="127" t="n">
+        <v>23</v>
+      </c>
+      <c r="K11" s="127" t="n">
+        <v>29</v>
+      </c>
+      <c r="L11" s="127" t="n">
         <v>2</v>
-      </c>
-      <c r="K11" s="127" t="n">
-        <v>23</v>
-      </c>
-      <c r="L11" s="127" t="n">
-        <v>29</v>
       </c>
       <c r="M11" s="127" t="n">
         <v>2</v>
       </c>
       <c r="N11" s="127" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="O11" s="127" t="n">
-        <v>31</v>
+        <v>22956.61</v>
       </c>
       <c r="P11" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="127" t="n">
         <v>22956.61</v>
       </c>
-      <c r="Q11" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" s="127" t="n">
-        <v>22956.61</v>
+        <v>27088.8</v>
       </c>
       <c r="U11" s="127" t="n">
-        <v>2066.09</v>
+        <v/>
       </c>
       <c r="V11" s="127" t="n">
         <v>2066.09</v>
       </c>
       <c r="W11" s="127" t="n">
-        <v>0</v>
+        <v>2066.09</v>
       </c>
       <c r="X11" s="127" t="n">
-        <v>27088.8</v>
-      </c>
-      <c r="Y11" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3060,80 +3004,75 @@
       </c>
       <c r="B12" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10140</t>
         </is>
       </c>
       <c r="C12" s="127" t="inlineStr">
         <is>
-          <t>JB-10140</t>
-        </is>
-      </c>
-      <c r="D12" s="127" t="inlineStr">
-        <is>
           <t>VISHAL VITTHAL SALATE</t>
         </is>
       </c>
+      <c r="D12" s="127" t="n">
+        <v>20735</v>
+      </c>
       <c r="E12" s="127" t="n">
-        <v>20735</v>
+        <v>28</v>
       </c>
       <c r="F12" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G12" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H12" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="127" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K12" s="127" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L12" s="127" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M12" s="127" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="127" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="O12" s="127" t="n">
-        <v>31</v>
+        <v>22956.61</v>
       </c>
       <c r="P12" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="127" t="n">
         <v>22956.61</v>
       </c>
-      <c r="Q12" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" s="127" t="n">
-        <v>22956.61</v>
+        <v>27088.8</v>
       </c>
       <c r="U12" s="127" t="n">
-        <v>2066.09</v>
+        <v/>
       </c>
       <c r="V12" s="127" t="n">
         <v>2066.09</v>
       </c>
       <c r="W12" s="127" t="n">
-        <v>0</v>
+        <v>2066.09</v>
       </c>
       <c r="X12" s="127" t="n">
-        <v>27088.8</v>
-      </c>
-      <c r="Y12" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3145,80 +3084,75 @@
       </c>
       <c r="B13" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10156</t>
         </is>
       </c>
       <c r="C13" s="127" t="inlineStr">
         <is>
-          <t>JB-10156</t>
-        </is>
-      </c>
-      <c r="D13" s="127" t="inlineStr">
-        <is>
           <t>SHRUTI SHASHIKANT PAWAR</t>
         </is>
       </c>
+      <c r="D13" s="127" t="n">
+        <v>20735</v>
+      </c>
       <c r="E13" s="127" t="n">
-        <v>20735</v>
+        <v>28</v>
       </c>
       <c r="F13" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G13" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H13" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="127" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K13" s="127" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L13" s="127" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M13" s="127" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="127" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="O13" s="127" t="n">
-        <v>31</v>
+        <v>22956.61</v>
       </c>
       <c r="P13" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="127" t="n">
         <v>22956.61</v>
       </c>
-      <c r="Q13" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T13" s="127" t="n">
-        <v>22956.61</v>
+        <v>27088.8</v>
       </c>
       <c r="U13" s="127" t="n">
-        <v>2066.09</v>
+        <v/>
       </c>
       <c r="V13" s="127" t="n">
         <v>2066.09</v>
       </c>
       <c r="W13" s="127" t="n">
-        <v>0</v>
+        <v>2066.09</v>
       </c>
       <c r="X13" s="127" t="n">
-        <v>27088.8</v>
-      </c>
-      <c r="Y13" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3230,80 +3164,75 @@
       </c>
       <c r="B14" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10159</t>
         </is>
       </c>
       <c r="C14" s="127" t="inlineStr">
         <is>
-          <t>JB-10159</t>
-        </is>
-      </c>
-      <c r="D14" s="127" t="inlineStr">
-        <is>
           <t>TANVI MADHUKAR PANSARE</t>
         </is>
       </c>
+      <c r="D14" s="127" t="n">
+        <v>20735</v>
+      </c>
       <c r="E14" s="127" t="n">
-        <v>20735</v>
+        <v>28</v>
       </c>
       <c r="F14" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G14" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H14" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="127" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K14" s="127" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L14" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="127" t="n">
         <v>31</v>
       </c>
-      <c r="M14" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" s="127" t="n">
-        <v>31</v>
+        <v>22956.61</v>
       </c>
       <c r="P14" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="127" t="n">
         <v>22956.61</v>
       </c>
-      <c r="Q14" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" s="127" t="n">
-        <v>22956.61</v>
+        <v>27088.8</v>
       </c>
       <c r="U14" s="127" t="n">
-        <v>2066.09</v>
+        <v/>
       </c>
       <c r="V14" s="127" t="n">
         <v>2066.09</v>
       </c>
       <c r="W14" s="127" t="n">
-        <v>0</v>
+        <v>2066.09</v>
       </c>
       <c r="X14" s="127" t="n">
-        <v>27088.8</v>
-      </c>
-      <c r="Y14" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3315,80 +3244,75 @@
       </c>
       <c r="B15" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10160</t>
         </is>
       </c>
       <c r="C15" s="127" t="inlineStr">
         <is>
-          <t>JB-10160</t>
-        </is>
-      </c>
-      <c r="D15" s="127" t="inlineStr">
-        <is>
           <t>SAHIL LAHU MHATRE</t>
         </is>
       </c>
+      <c r="D15" s="127" t="n">
+        <v>20735</v>
+      </c>
       <c r="E15" s="127" t="n">
-        <v>20735</v>
+        <v>28</v>
       </c>
       <c r="F15" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G15" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H15" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="127" t="n">
+        <v>23</v>
+      </c>
+      <c r="K15" s="127" t="n">
+        <v>29</v>
+      </c>
+      <c r="L15" s="127" t="n">
         <v>2</v>
-      </c>
-      <c r="K15" s="127" t="n">
-        <v>23</v>
-      </c>
-      <c r="L15" s="127" t="n">
-        <v>29</v>
       </c>
       <c r="M15" s="127" t="n">
         <v>2</v>
       </c>
       <c r="N15" s="127" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="O15" s="127" t="n">
-        <v>31</v>
+        <v>22956.61</v>
       </c>
       <c r="P15" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="127" t="n">
         <v>22956.61</v>
       </c>
-      <c r="Q15" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" s="127" t="n">
-        <v>22956.61</v>
+        <v>27088.8</v>
       </c>
       <c r="U15" s="127" t="n">
-        <v>2066.09</v>
+        <v/>
       </c>
       <c r="V15" s="127" t="n">
         <v>2066.09</v>
       </c>
       <c r="W15" s="127" t="n">
-        <v>0</v>
+        <v>2066.09</v>
       </c>
       <c r="X15" s="127" t="n">
-        <v>27088.8</v>
-      </c>
-      <c r="Y15" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3400,80 +3324,75 @@
       </c>
       <c r="B16" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10163</t>
         </is>
       </c>
       <c r="C16" s="127" t="inlineStr">
         <is>
-          <t>JB-10163</t>
-        </is>
-      </c>
-      <c r="D16" s="127" t="inlineStr">
-        <is>
           <t>VIVEK VINOD TIWARI</t>
         </is>
       </c>
+      <c r="D16" s="127" t="n">
+        <v>20735</v>
+      </c>
       <c r="E16" s="127" t="n">
-        <v>20735</v>
+        <v>28</v>
       </c>
       <c r="F16" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G16" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H16" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" s="127" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K16" s="127" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L16" s="127" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M16" s="127" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="127" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="O16" s="127" t="n">
-        <v>31</v>
+        <v>22956.61</v>
       </c>
       <c r="P16" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="127" t="n">
         <v>22956.61</v>
       </c>
-      <c r="Q16" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T16" s="127" t="n">
-        <v>22956.61</v>
+        <v>27088.8</v>
       </c>
       <c r="U16" s="127" t="n">
-        <v>2066.09</v>
+        <v/>
       </c>
       <c r="V16" s="127" t="n">
         <v>2066.09</v>
       </c>
       <c r="W16" s="127" t="n">
-        <v>0</v>
+        <v>2066.09</v>
       </c>
       <c r="X16" s="127" t="n">
-        <v>27088.8</v>
-      </c>
-      <c r="Y16" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3485,80 +3404,75 @@
       </c>
       <c r="B17" s="127" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10165</t>
         </is>
       </c>
       <c r="C17" s="127" t="inlineStr">
         <is>
-          <t>JB-10165</t>
-        </is>
-      </c>
-      <c r="D17" s="127" t="inlineStr">
-        <is>
           <t>SHRUTI CHANDRAKANT UTEKAR</t>
         </is>
       </c>
+      <c r="D17" s="127" t="n">
+        <v>20735</v>
+      </c>
       <c r="E17" s="127" t="n">
-        <v>20735</v>
+        <v>28</v>
       </c>
       <c r="F17" s="127" t="n">
         <v>28</v>
       </c>
       <c r="G17" s="127" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H17" s="127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="127" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K17" s="127" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L17" s="127" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="M17" s="127" t="n">
         <v>5</v>
       </c>
       <c r="N17" s="127" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="O17" s="127" t="n">
-        <v>31</v>
+        <v>22956.61</v>
       </c>
       <c r="P17" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="127" t="n">
         <v>22956.61</v>
       </c>
-      <c r="Q17" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="127" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" s="127" t="n">
-        <v>22956.61</v>
+        <v>27088.8</v>
       </c>
       <c r="U17" s="127" t="n">
-        <v>2066.09</v>
+        <v/>
       </c>
       <c r="V17" s="127" t="n">
         <v>2066.09</v>
       </c>
       <c r="W17" s="127" t="n">
-        <v>0</v>
+        <v>2066.09</v>
       </c>
       <c r="X17" s="127" t="n">
-        <v>27088.8</v>
-      </c>
-      <c r="Y17" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3570,7 +3484,10 @@
       </c>
       <c r="B18" s="128" t="n"/>
       <c r="C18" s="128" t="n"/>
-      <c r="D18" s="128" t="n"/>
+      <c r="D18" s="128">
+        <f>ROUND(SUM(D2:D17), 0)</f>
+        <v/>
+      </c>
       <c r="E18" s="128">
         <f>ROUND(SUM(E2:E17), 0)</f>
         <v/>
@@ -3632,26 +3549,22 @@
         <v/>
       </c>
       <c r="T18" s="128">
-        <f>ROUND(SUM(T2:T17), 0)</f>
-        <v/>
-      </c>
-      <c r="U18" s="128">
-        <f>CEILING(SUM(U2:U17), 1)</f>
-        <v/>
-      </c>
+        <f>ROUND(SUM(S18), 0)</f>
+        <v/>
+      </c>
+      <c r="U18" s="128" t="n"/>
       <c r="V18" s="128">
         <f>CEILING(SUM(V2:V17), 1)</f>
         <v/>
       </c>
       <c r="W18" s="128">
-        <f>ROUND(SUM(W2:W17), 0)</f>
+        <f>CEILING(SUM(W2:W17), 1)</f>
         <v/>
       </c>
       <c r="X18" s="128">
-        <f>ROUND(SUM(T18,U18,V18,W18), 0)</f>
-        <v/>
-      </c>
-      <c r="Y18" s="128" t="n"/>
+        <f>ROUND(SUM(X2:X17), 0)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bills/Vidhya_Dhamankar_Jobuss.xlsx
+++ b/Bills/Vidhya_Dhamankar_Jobuss.xlsx
@@ -586,7 +586,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -889,7 +889,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2040,7 +2044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,7 +2075,6 @@
     <col width="18" customWidth="1" min="21" max="21"/>
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2172,27 +2175,22 @@
       </c>
       <c r="T1" s="126" t="inlineStr">
         <is>
+          <t>CGST @9%</t>
+        </is>
+      </c>
+      <c r="U1" s="126" t="inlineStr">
+        <is>
+          <t>SGST @9%</t>
+        </is>
+      </c>
+      <c r="V1" s="126" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="126" t="inlineStr">
+      <c r="W1" s="126" t="inlineStr">
         <is>
           <t>Remark</t>
-        </is>
-      </c>
-      <c r="V1" s="126" t="inlineStr">
-        <is>
-          <t>CGST @9%</t>
-        </is>
-      </c>
-      <c r="W1" s="126" t="inlineStr">
-        <is>
-          <t>SGST @9%</t>
-        </is>
-      </c>
-      <c r="X1" s="126" t="inlineStr">
-        <is>
-          <t>IGST @18%</t>
         </is>
       </c>
     </row>
@@ -2212,67 +2210,64 @@
           <t>MAYURI VILAS MANJALKAR</t>
         </is>
       </c>
-      <c r="D2" s="127" t="n">
+      <c r="D2" s="128" t="n">
         <v>23385</v>
       </c>
-      <c r="E2" s="127" t="n">
+      <c r="E2" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F2" s="127" t="n">
+      <c r="F2" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G2" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="127" t="n">
+      <c r="G2" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="127" t="n">
+      <c r="I2" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="127" t="n">
+      <c r="J2" s="128" t="n">
         <v>25</v>
       </c>
-      <c r="K2" s="127" t="n">
+      <c r="K2" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="L2" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="127" t="n">
+      <c r="L2" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O2" s="127" t="n">
+      <c r="O2" s="128" t="n">
         <v>25890.54</v>
       </c>
-      <c r="P2" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="127" t="n">
+      <c r="P2" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="128" t="n">
         <v>25890.54</v>
       </c>
-      <c r="T2" s="127" t="n">
+      <c r="T2" s="128" t="n">
+        <v>2330.15</v>
+      </c>
+      <c r="U2" s="128" t="n">
+        <v>2330.15</v>
+      </c>
+      <c r="V2" s="128" t="n">
         <v>30550.83</v>
       </c>
-      <c r="U2" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="127" t="n">
-        <v>2330.15</v>
-      </c>
       <c r="W2" s="127" t="n">
-        <v>2330.15</v>
-      </c>
-      <c r="X2" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2292,67 +2287,64 @@
           <t>SHRAVANI SAGAR NARKAR</t>
         </is>
       </c>
-      <c r="D3" s="127" t="n">
+      <c r="D3" s="128" t="n">
         <v>23235</v>
       </c>
-      <c r="E3" s="127" t="n">
+      <c r="E3" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F3" s="127" t="n">
+      <c r="F3" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G3" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="127" t="n">
+      <c r="G3" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="127" t="n">
+      <c r="I3" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="127" t="n">
+      <c r="J3" s="128" t="n">
         <v>25</v>
       </c>
-      <c r="K3" s="127" t="n">
+      <c r="K3" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="L3" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="127" t="n">
+      <c r="L3" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O3" s="127" t="n">
+      <c r="O3" s="128" t="n">
         <v>25724.46</v>
       </c>
-      <c r="P3" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="127" t="n">
+      <c r="P3" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="128" t="n">
         <v>25724.46</v>
       </c>
-      <c r="T3" s="127" t="n">
+      <c r="T3" s="128" t="n">
+        <v>2315.2</v>
+      </c>
+      <c r="U3" s="128" t="n">
+        <v>2315.2</v>
+      </c>
+      <c r="V3" s="128" t="n">
         <v>30354.87</v>
       </c>
-      <c r="U3" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V3" s="127" t="n">
-        <v>2315.2</v>
-      </c>
       <c r="W3" s="127" t="n">
-        <v>2315.2</v>
-      </c>
-      <c r="X3" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2372,67 +2364,64 @@
           <t>DIKSHA SACHIN JADHAV</t>
         </is>
       </c>
-      <c r="D4" s="127" t="n">
+      <c r="D4" s="128" t="n">
         <v>22884</v>
       </c>
-      <c r="E4" s="127" t="n">
+      <c r="E4" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F4" s="127" t="n">
+      <c r="F4" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G4" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="127" t="n">
+      <c r="G4" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="127" t="n">
+      <c r="I4" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="127" t="n">
+      <c r="J4" s="128" t="n">
         <v>22</v>
       </c>
-      <c r="K4" s="127" t="n">
+      <c r="K4" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="L4" s="127" t="n">
+      <c r="L4" s="128" t="n">
         <v>3</v>
       </c>
-      <c r="M4" s="127" t="n">
+      <c r="M4" s="128" t="n">
         <v>3</v>
       </c>
-      <c r="N4" s="127" t="n">
+      <c r="N4" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O4" s="127" t="n">
+      <c r="O4" s="128" t="n">
         <v>25335.86</v>
       </c>
-      <c r="P4" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="127" t="n">
+      <c r="P4" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="128" t="n">
         <v>25335.86</v>
       </c>
-      <c r="T4" s="127" t="n">
+      <c r="T4" s="128" t="n">
+        <v>2280.23</v>
+      </c>
+      <c r="U4" s="128" t="n">
+        <v>2280.23</v>
+      </c>
+      <c r="V4" s="128" t="n">
         <v>29896.31</v>
       </c>
-      <c r="U4" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V4" s="127" t="n">
-        <v>2280.23</v>
-      </c>
       <c r="W4" s="127" t="n">
-        <v>2280.23</v>
-      </c>
-      <c r="X4" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2452,67 +2441,64 @@
           <t>PRATIKSHA DILIP POTE</t>
         </is>
       </c>
-      <c r="D5" s="127" t="n">
+      <c r="D5" s="128" t="n">
         <v>22398</v>
       </c>
-      <c r="E5" s="127" t="n">
+      <c r="E5" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F5" s="127" t="n">
+      <c r="F5" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G5" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="127" t="n">
+      <c r="G5" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="127" t="n">
+      <c r="I5" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="127" t="n">
+      <c r="J5" s="128" t="n">
         <v>23</v>
       </c>
-      <c r="K5" s="127" t="n">
+      <c r="K5" s="128" t="n">
         <v>29</v>
       </c>
-      <c r="L5" s="127" t="n">
+      <c r="L5" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="127" t="n">
+      <c r="M5" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="N5" s="127" t="n">
+      <c r="N5" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O5" s="127" t="n">
+      <c r="O5" s="128" t="n">
         <v>24797.79</v>
       </c>
-      <c r="P5" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="127" t="n">
+      <c r="P5" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="128" t="n">
         <v>24797.79</v>
       </c>
-      <c r="T5" s="127" t="n">
+      <c r="T5" s="128" t="n">
+        <v>2231.8</v>
+      </c>
+      <c r="U5" s="128" t="n">
+        <v>2231.8</v>
+      </c>
+      <c r="V5" s="128" t="n">
         <v>29261.39</v>
       </c>
-      <c r="U5" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V5" s="127" t="n">
-        <v>2231.8</v>
-      </c>
       <c r="W5" s="127" t="n">
-        <v>2231.8</v>
-      </c>
-      <c r="X5" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2532,67 +2518,64 @@
           <t>ANIKET ANANDA DHANAWADE</t>
         </is>
       </c>
-      <c r="D6" s="127" t="n">
+      <c r="D6" s="128" t="n">
         <v>22051</v>
       </c>
-      <c r="E6" s="127" t="n">
+      <c r="E6" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F6" s="127" t="n">
+      <c r="F6" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G6" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="127" t="n">
+      <c r="G6" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="127" t="n">
+      <c r="I6" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="127" t="n">
+      <c r="J6" s="128" t="n">
         <v>22</v>
       </c>
-      <c r="K6" s="127" t="n">
+      <c r="K6" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="L6" s="127" t="n">
+      <c r="L6" s="128" t="n">
         <v>3</v>
       </c>
-      <c r="M6" s="127" t="n">
+      <c r="M6" s="128" t="n">
         <v>3</v>
       </c>
-      <c r="N6" s="127" t="n">
+      <c r="N6" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O6" s="127" t="n">
+      <c r="O6" s="128" t="n">
         <v>24413.61</v>
       </c>
-      <c r="P6" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="127" t="n">
+      <c r="P6" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="128" t="n">
         <v>24413.61</v>
       </c>
-      <c r="T6" s="127" t="n">
+      <c r="T6" s="128" t="n">
+        <v>2197.22</v>
+      </c>
+      <c r="U6" s="128" t="n">
+        <v>2197.22</v>
+      </c>
+      <c r="V6" s="128" t="n">
         <v>28808.06</v>
       </c>
-      <c r="U6" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V6" s="127" t="n">
-        <v>2197.22</v>
-      </c>
       <c r="W6" s="127" t="n">
-        <v>2197.22</v>
-      </c>
-      <c r="X6" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2612,67 +2595,64 @@
           <t>ROSHANI DEEPAK KANDAR</t>
         </is>
       </c>
-      <c r="D7" s="127" t="n">
+      <c r="D7" s="128" t="n">
         <v>22051</v>
       </c>
-      <c r="E7" s="127" t="n">
+      <c r="E7" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F7" s="127" t="n">
+      <c r="F7" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G7" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="127" t="n">
+      <c r="G7" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="127" t="n">
+      <c r="I7" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="127" t="n">
+      <c r="J7" s="128" t="n">
         <v>24</v>
       </c>
-      <c r="K7" s="127" t="n">
+      <c r="K7" s="128" t="n">
         <v>30</v>
       </c>
-      <c r="L7" s="127" t="n">
+      <c r="L7" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="127" t="n">
+      <c r="M7" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="N7" s="127" t="n">
+      <c r="N7" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O7" s="127" t="n">
+      <c r="O7" s="128" t="n">
         <v>24413.61</v>
       </c>
-      <c r="P7" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="127" t="n">
+      <c r="P7" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="128" t="n">
         <v>24413.61</v>
       </c>
-      <c r="T7" s="127" t="n">
+      <c r="T7" s="128" t="n">
+        <v>2197.22</v>
+      </c>
+      <c r="U7" s="128" t="n">
+        <v>2197.22</v>
+      </c>
+      <c r="V7" s="128" t="n">
         <v>28808.06</v>
       </c>
-      <c r="U7" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V7" s="127" t="n">
-        <v>2197.22</v>
-      </c>
       <c r="W7" s="127" t="n">
-        <v>2197.22</v>
-      </c>
-      <c r="X7" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2692,67 +2672,64 @@
           <t>SHRUTI JADHAV</t>
         </is>
       </c>
-      <c r="D8" s="127" t="n">
+      <c r="D8" s="128" t="n">
         <v>20735</v>
       </c>
-      <c r="E8" s="127" t="n">
+      <c r="E8" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F8" s="127" t="n">
+      <c r="F8" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G8" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="127" t="n">
+      <c r="G8" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="127" t="n">
+      <c r="I8" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="127" t="n">
+      <c r="J8" s="128" t="n">
         <v>24</v>
       </c>
-      <c r="K8" s="127" t="n">
+      <c r="K8" s="128" t="n">
         <v>30</v>
       </c>
-      <c r="L8" s="127" t="n">
+      <c r="L8" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="M8" s="127" t="n">
+      <c r="M8" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="127" t="n">
+      <c r="N8" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O8" s="127" t="n">
+      <c r="O8" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="P8" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="127" t="n">
+      <c r="P8" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="T8" s="127" t="n">
+      <c r="T8" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="U8" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="V8" s="128" t="n">
         <v>27088.8</v>
       </c>
-      <c r="U8" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V8" s="127" t="n">
-        <v>2066.09</v>
-      </c>
       <c r="W8" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="X8" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2772,67 +2749,64 @@
           <t>MAYURI ANANT PANHALKAR</t>
         </is>
       </c>
-      <c r="D9" s="127" t="n">
+      <c r="D9" s="128" t="n">
         <v>20735</v>
       </c>
-      <c r="E9" s="127" t="n">
+      <c r="E9" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F9" s="127" t="n">
+      <c r="F9" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G9" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="127" t="n">
+      <c r="G9" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="127" t="n">
+      <c r="I9" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="127" t="n">
+      <c r="J9" s="128" t="n">
         <v>24</v>
       </c>
-      <c r="K9" s="127" t="n">
+      <c r="K9" s="128" t="n">
         <v>30</v>
       </c>
-      <c r="L9" s="127" t="n">
+      <c r="L9" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="127" t="n">
+      <c r="M9" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="N9" s="127" t="n">
+      <c r="N9" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O9" s="127" t="n">
+      <c r="O9" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="P9" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="127" t="n">
+      <c r="P9" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="T9" s="127" t="n">
+      <c r="T9" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="U9" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="V9" s="128" t="n">
         <v>27088.8</v>
       </c>
-      <c r="U9" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V9" s="127" t="n">
-        <v>2066.09</v>
-      </c>
       <c r="W9" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="X9" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2852,67 +2826,64 @@
           <t>SAKSHI SURESH DAKVE</t>
         </is>
       </c>
-      <c r="D10" s="127" t="n">
+      <c r="D10" s="128" t="n">
         <v>20735</v>
       </c>
-      <c r="E10" s="127" t="n">
+      <c r="E10" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F10" s="127" t="n">
+      <c r="F10" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G10" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="127" t="n">
+      <c r="G10" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I10" s="127" t="n">
+      <c r="I10" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="127" t="n">
+      <c r="J10" s="128" t="n">
         <v>25</v>
       </c>
-      <c r="K10" s="127" t="n">
+      <c r="K10" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="L10" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="127" t="n">
+      <c r="L10" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O10" s="127" t="n">
+      <c r="O10" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="P10" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="127" t="n">
+      <c r="P10" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="T10" s="127" t="n">
+      <c r="T10" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="U10" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="V10" s="128" t="n">
         <v>27088.8</v>
       </c>
-      <c r="U10" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V10" s="127" t="n">
-        <v>2066.09</v>
-      </c>
       <c r="W10" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="X10" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -2932,67 +2903,64 @@
           <t>ANKITA SHRIPATI NALAWADE</t>
         </is>
       </c>
-      <c r="D11" s="127" t="n">
+      <c r="D11" s="128" t="n">
         <v>20735</v>
       </c>
-      <c r="E11" s="127" t="n">
+      <c r="E11" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F11" s="127" t="n">
+      <c r="F11" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G11" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="127" t="n">
+      <c r="G11" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I11" s="127" t="n">
+      <c r="I11" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="127" t="n">
+      <c r="J11" s="128" t="n">
         <v>23</v>
       </c>
-      <c r="K11" s="127" t="n">
+      <c r="K11" s="128" t="n">
         <v>29</v>
       </c>
-      <c r="L11" s="127" t="n">
+      <c r="L11" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="127" t="n">
+      <c r="M11" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="N11" s="127" t="n">
+      <c r="N11" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O11" s="127" t="n">
+      <c r="O11" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="P11" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="127" t="n">
+      <c r="P11" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="T11" s="127" t="n">
+      <c r="T11" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="U11" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="V11" s="128" t="n">
         <v>27088.8</v>
       </c>
-      <c r="U11" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V11" s="127" t="n">
-        <v>2066.09</v>
-      </c>
       <c r="W11" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="X11" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3012,67 +2980,64 @@
           <t>VISHAL VITTHAL SALATE</t>
         </is>
       </c>
-      <c r="D12" s="127" t="n">
+      <c r="D12" s="128" t="n">
         <v>20735</v>
       </c>
-      <c r="E12" s="127" t="n">
+      <c r="E12" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F12" s="127" t="n">
+      <c r="F12" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G12" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="127" t="n">
+      <c r="G12" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="127" t="n">
+      <c r="I12" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="127" t="n">
+      <c r="J12" s="128" t="n">
         <v>24</v>
       </c>
-      <c r="K12" s="127" t="n">
+      <c r="K12" s="128" t="n">
         <v>30</v>
       </c>
-      <c r="L12" s="127" t="n">
+      <c r="L12" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="127" t="n">
+      <c r="M12" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="127" t="n">
+      <c r="N12" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O12" s="127" t="n">
+      <c r="O12" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="P12" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="127" t="n">
+      <c r="P12" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="T12" s="127" t="n">
+      <c r="T12" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="U12" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="V12" s="128" t="n">
         <v>27088.8</v>
       </c>
-      <c r="U12" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V12" s="127" t="n">
-        <v>2066.09</v>
-      </c>
       <c r="W12" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="X12" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3092,67 +3057,64 @@
           <t>SHRUTI SHASHIKANT PAWAR</t>
         </is>
       </c>
-      <c r="D13" s="127" t="n">
+      <c r="D13" s="128" t="n">
         <v>20735</v>
       </c>
-      <c r="E13" s="127" t="n">
+      <c r="E13" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F13" s="127" t="n">
+      <c r="F13" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G13" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="127" t="n">
+      <c r="G13" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I13" s="127" t="n">
+      <c r="I13" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="127" t="n">
+      <c r="J13" s="128" t="n">
         <v>24</v>
       </c>
-      <c r="K13" s="127" t="n">
+      <c r="K13" s="128" t="n">
         <v>30</v>
       </c>
-      <c r="L13" s="127" t="n">
+      <c r="L13" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="127" t="n">
+      <c r="M13" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="N13" s="127" t="n">
+      <c r="N13" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O13" s="127" t="n">
+      <c r="O13" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="P13" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="127" t="n">
+      <c r="P13" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="T13" s="127" t="n">
+      <c r="T13" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="U13" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="V13" s="128" t="n">
         <v>27088.8</v>
       </c>
-      <c r="U13" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V13" s="127" t="n">
-        <v>2066.09</v>
-      </c>
       <c r="W13" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="X13" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3172,67 +3134,64 @@
           <t>TANVI MADHUKAR PANSARE</t>
         </is>
       </c>
-      <c r="D14" s="127" t="n">
+      <c r="D14" s="128" t="n">
         <v>20735</v>
       </c>
-      <c r="E14" s="127" t="n">
+      <c r="E14" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F14" s="127" t="n">
+      <c r="F14" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G14" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="127" t="n">
+      <c r="G14" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I14" s="127" t="n">
+      <c r="I14" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="127" t="n">
+      <c r="J14" s="128" t="n">
         <v>25</v>
       </c>
-      <c r="K14" s="127" t="n">
+      <c r="K14" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="L14" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="127" t="n">
+      <c r="L14" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O14" s="127" t="n">
+      <c r="O14" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="P14" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="127" t="n">
+      <c r="P14" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="T14" s="127" t="n">
+      <c r="T14" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="U14" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="V14" s="128" t="n">
         <v>27088.8</v>
       </c>
-      <c r="U14" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V14" s="127" t="n">
-        <v>2066.09</v>
-      </c>
       <c r="W14" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="X14" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3252,67 +3211,64 @@
           <t>SAHIL LAHU MHATRE</t>
         </is>
       </c>
-      <c r="D15" s="127" t="n">
+      <c r="D15" s="128" t="n">
         <v>20735</v>
       </c>
-      <c r="E15" s="127" t="n">
+      <c r="E15" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F15" s="127" t="n">
+      <c r="F15" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G15" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="127" t="n">
+      <c r="G15" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I15" s="127" t="n">
+      <c r="I15" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="127" t="n">
+      <c r="J15" s="128" t="n">
         <v>23</v>
       </c>
-      <c r="K15" s="127" t="n">
+      <c r="K15" s="128" t="n">
         <v>29</v>
       </c>
-      <c r="L15" s="127" t="n">
+      <c r="L15" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="127" t="n">
+      <c r="M15" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="N15" s="127" t="n">
+      <c r="N15" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O15" s="127" t="n">
+      <c r="O15" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="P15" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="127" t="n">
+      <c r="P15" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="T15" s="127" t="n">
+      <c r="T15" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="U15" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="V15" s="128" t="n">
         <v>27088.8</v>
       </c>
-      <c r="U15" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V15" s="127" t="n">
-        <v>2066.09</v>
-      </c>
       <c r="W15" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="X15" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3332,67 +3288,64 @@
           <t>VIVEK VINOD TIWARI</t>
         </is>
       </c>
-      <c r="D16" s="127" t="n">
+      <c r="D16" s="128" t="n">
         <v>20735</v>
       </c>
-      <c r="E16" s="127" t="n">
+      <c r="E16" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F16" s="127" t="n">
+      <c r="F16" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G16" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="127" t="n">
+      <c r="G16" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I16" s="127" t="n">
+      <c r="I16" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="127" t="n">
+      <c r="J16" s="128" t="n">
         <v>24</v>
       </c>
-      <c r="K16" s="127" t="n">
+      <c r="K16" s="128" t="n">
         <v>30</v>
       </c>
-      <c r="L16" s="127" t="n">
+      <c r="L16" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="127" t="n">
+      <c r="M16" s="128" t="n">
         <v>1</v>
       </c>
-      <c r="N16" s="127" t="n">
+      <c r="N16" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O16" s="127" t="n">
+      <c r="O16" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="P16" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="127" t="n">
+      <c r="P16" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="T16" s="127" t="n">
+      <c r="T16" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="U16" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="V16" s="128" t="n">
         <v>27088.8</v>
       </c>
-      <c r="U16" s="127" t="n">
-        <v/>
-      </c>
-      <c r="V16" s="127" t="n">
-        <v>2066.09</v>
-      </c>
       <c r="W16" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="X16" s="127" t="n">
         <v/>
       </c>
     </row>
@@ -3412,159 +3365,152 @@
           <t>SHRUTI CHANDRAKANT UTEKAR</t>
         </is>
       </c>
-      <c r="D17" s="127" t="n">
+      <c r="D17" s="128" t="n">
         <v>20735</v>
       </c>
-      <c r="E17" s="127" t="n">
+      <c r="E17" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="F17" s="127" t="n">
+      <c r="F17" s="128" t="n">
         <v>28</v>
       </c>
-      <c r="G17" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="127" t="n">
+      <c r="G17" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="128" t="n">
         <v>4</v>
       </c>
-      <c r="I17" s="127" t="n">
+      <c r="I17" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="127" t="n">
+      <c r="J17" s="128" t="n">
         <v>20</v>
       </c>
-      <c r="K17" s="127" t="n">
+      <c r="K17" s="128" t="n">
         <v>26</v>
       </c>
-      <c r="L17" s="127" t="n">
+      <c r="L17" s="128" t="n">
         <v>5</v>
       </c>
-      <c r="M17" s="127" t="n">
+      <c r="M17" s="128" t="n">
         <v>5</v>
       </c>
-      <c r="N17" s="127" t="n">
+      <c r="N17" s="128" t="n">
         <v>31</v>
       </c>
-      <c r="O17" s="127" t="n">
+      <c r="O17" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="P17" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="127" t="n">
+      <c r="P17" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="128" t="n">
         <v>22956.61</v>
       </c>
-      <c r="T17" s="127" t="n">
+      <c r="T17" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="U17" s="128" t="n">
+        <v>2066.09</v>
+      </c>
+      <c r="V17" s="128" t="n">
         <v>27088.8</v>
       </c>
-      <c r="U17" s="127" t="n">
+      <c r="W17" s="127" t="n">
         <v/>
       </c>
-      <c r="V17" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="W17" s="127" t="n">
-        <v>2066.09</v>
-      </c>
-      <c r="X17" s="127" t="n">
-        <v/>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="128" t="inlineStr">
+      <c r="A18" s="129" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B18" s="128" t="n"/>
-      <c r="C18" s="128" t="n"/>
-      <c r="D18" s="128">
+      <c r="B18" s="129" t="n"/>
+      <c r="C18" s="129" t="n"/>
+      <c r="D18" s="130">
         <f>ROUND(SUM(D2:D17), 0)</f>
         <v/>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="130">
         <f>ROUND(SUM(E2:E17), 0)</f>
         <v/>
       </c>
-      <c r="F18" s="128">
+      <c r="F18" s="130">
         <f>ROUND(SUM(F2:F17), 0)</f>
         <v/>
       </c>
-      <c r="G18" s="128">
+      <c r="G18" s="130">
         <f>ROUND(SUM(G2:G17), 0)</f>
         <v/>
       </c>
-      <c r="H18" s="128">
+      <c r="H18" s="130">
         <f>ROUND(SUM(H2:H17), 0)</f>
         <v/>
       </c>
-      <c r="I18" s="128">
+      <c r="I18" s="130">
         <f>ROUND(SUM(I2:I17), 0)</f>
         <v/>
       </c>
-      <c r="J18" s="128">
+      <c r="J18" s="130">
         <f>ROUND(SUM(J2:J17), 0)</f>
         <v/>
       </c>
-      <c r="K18" s="128">
+      <c r="K18" s="130">
         <f>ROUND(SUM(K2:K17), 0)</f>
         <v/>
       </c>
-      <c r="L18" s="128">
+      <c r="L18" s="130">
         <f>ROUND(SUM(L2:L17), 0)</f>
         <v/>
       </c>
-      <c r="M18" s="128">
+      <c r="M18" s="130">
         <f>ROUND(SUM(M2:M17), 0)</f>
         <v/>
       </c>
-      <c r="N18" s="128">
+      <c r="N18" s="130">
         <f>ROUND(SUM(N2:N17), 0)</f>
         <v/>
       </c>
-      <c r="O18" s="128">
+      <c r="O18" s="130">
         <f>ROUND(SUM(O2:O17), 0)</f>
         <v/>
       </c>
-      <c r="P18" s="128">
+      <c r="P18" s="130">
         <f>ROUND(SUM(P2:P17), 0)</f>
         <v/>
       </c>
-      <c r="Q18" s="128">
+      <c r="Q18" s="130">
         <f>ROUND(SUM(Q2:Q17), 0)</f>
         <v/>
       </c>
-      <c r="R18" s="128">
+      <c r="R18" s="130">
         <f>ROUND(SUM(R2:R17), 0)</f>
         <v/>
       </c>
-      <c r="S18" s="128">
+      <c r="S18" s="130">
         <f>ROUND(SUM(S2:S17), 0)</f>
         <v/>
       </c>
-      <c r="T18" s="128">
-        <f>ROUND(SUM(S18), 0)</f>
+      <c r="T18" s="130">
+        <f>CEILING(SUM(T2:T17), 1)</f>
         <v/>
       </c>
-      <c r="U18" s="128" t="n"/>
-      <c r="V18" s="128">
-        <f>CEILING(SUM(V2:V17), 1)</f>
+      <c r="U18" s="130">
+        <f>CEILING(SUM(U2:U17), 1)</f>
         <v/>
       </c>
-      <c r="W18" s="128">
-        <f>CEILING(SUM(W2:W17), 1)</f>
+      <c r="V18" s="130">
+        <f>ROUND(SUM(S18,T18,U18), 0)</f>
         <v/>
       </c>
-      <c r="X18" s="128">
-        <f>ROUND(SUM(X2:X17), 0)</f>
-        <v/>
-      </c>
+      <c r="W18" s="129" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
